--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1129268.193044993</v>
+        <v>1126832.556121286</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673424</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>14.59946548753672</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>22.15546799834686</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -832,10 +832,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>157.7822070347172</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471498</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>15.83694765564045</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -947,10 +947,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>92.47445699814396</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>115.1269998040534</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>77.31354443380452</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>408.6659743001526</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>87.20461494092865</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1297,10 +1297,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380459</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>330.6672338519305</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>284.547335743093</v>
       </c>
       <c r="G11" t="n">
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806772</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114092</v>
+        <v>97.97552699114104</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458123</v>
+        <v>87.05432226458126</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035153</v>
+        <v>9.753166794035252</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>144.7344743073165</v>
+        <v>116.8801069587137</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
@@ -1546,7 +1546,7 @@
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.7150774703404</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146331</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1658,13 +1658,13 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374742</v>
+        <v>148.9055307001848</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
-        <v>277.4607323328439</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.35054486412814</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>153.9036548888876</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>132.6164309267681</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>134.354216528028</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>148.1185786361436</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.7063133373718</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.82863813027285</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301535</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444133</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819386</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>64.91921363453467</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>104.4262124629295</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>107.3870054807228</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,19 +3004,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>60.11729550773648</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187876</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3196,13 +3196,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229281</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,10 +3238,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4021082756241</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>201.4105577836276</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179546</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>107.4021082756237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>107.4021082756237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3907,13 +3907,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>41.02686156550207</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>113.7076464771378</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4138,13 +4138,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>107.4021082756232</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,7 +4340,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3303.226561004779</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3303.226561004779</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>3049.696084278616</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V2" t="n">
-        <v>2718.633196935045</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W2" t="n">
-        <v>2718.633196935045</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.167438673965</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>2062.330773118628</v>
       </c>
     </row>
     <row r="3">
@@ -4389,70 +4389,70 @@
         <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
         <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
         <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
         <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
         <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>2489.924953962485</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V4" t="n">
-        <v>1767.918581386758</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W4" t="n">
-        <v>1478.501411349798</v>
+        <v>3120.355548834272</v>
       </c>
       <c r="X4" t="n">
-        <v>1250.51186045178</v>
+        <v>2892.365997936255</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>2671.573418792725</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1992.201838557432</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4562,31 +4562,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1992.201838557432</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>645.3078929297411</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C7" t="n">
-        <v>645.3078929297411</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>645.3078929297411</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>497.394799347348</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>350.5048518494376</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>182.8020152241566</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4753,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732712</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y7" t="n">
-        <v>645.3078929297411</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2342.888901953459</v>
+        <v>1285.591601078694</v>
       </c>
       <c r="C8" t="n">
-        <v>1973.926385013047</v>
+        <v>916.6290841382827</v>
       </c>
       <c r="D8" t="n">
-        <v>1615.660686406297</v>
+        <v>558.3633855315322</v>
       </c>
       <c r="E8" t="n">
-        <v>1229.872433808053</v>
+        <v>172.575132933288</v>
       </c>
       <c r="F8" t="n">
-        <v>818.8865290184451</v>
+        <v>165.6296321840845</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>154.5975860694851</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4838,16 +4838,16 @@
         <v>3119.628073993393</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993393</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W8" t="n">
-        <v>3119.628073993393</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X8" t="n">
-        <v>3119.628073993393</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y8" t="n">
-        <v>2729.488742017581</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
         <v>66.51211643218342</v>
@@ -4993,19 +4993,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1940.620021102452</v>
+        <v>1535.258832689349</v>
       </c>
       <c r="C11" t="n">
-        <v>1940.620021102452</v>
+        <v>1166.296315748938</v>
       </c>
       <c r="D11" t="n">
-        <v>1582.354322495702</v>
+        <v>1166.296315748938</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.566069897458</v>
+        <v>780.5080631506939</v>
       </c>
       <c r="F11" t="n">
-        <v>785.5801651078502</v>
+        <v>493.0865118950448</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374972</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469197</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469197</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386838</v>
+        <v>308.7333971386829</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420332</v>
+        <v>704.5155104420328</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301227</v>
+        <v>1232.419981301226</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878112</v>
+        <v>1851.48485887811</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765428</v>
+        <v>2485.180661765425</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687105</v>
+        <v>3070.226377687101</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856288</v>
+        <v>3535.048359856283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882247</v>
+        <v>3835.937563882241</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234598</v>
+        <v>3925.553311234591</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455668</v>
+        <v>3826.58813245566</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971448</v>
+        <v>3622.78602197144</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604057</v>
+        <v>3369.295305604048</v>
       </c>
       <c r="V11" t="n">
-        <v>3038.232418260486</v>
+        <v>3038.232418260477</v>
       </c>
       <c r="W11" t="n">
-        <v>3038.232418260486</v>
+        <v>2685.463762990363</v>
       </c>
       <c r="X11" t="n">
-        <v>2664.766659999406</v>
+        <v>2311.998004729283</v>
       </c>
       <c r="Y11" t="n">
-        <v>2274.627328023595</v>
+        <v>1921.858672753471</v>
       </c>
     </row>
     <row r="12">
@@ -5109,31 +5109,31 @@
         <v>312.3935880326289</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2964087081429</v>
+        <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503051</v>
+        <v>88.36274985503046</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469197</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792132</v>
+        <v>196.8120623792128</v>
       </c>
       <c r="K12" t="n">
-        <v>477.162132237651</v>
+        <v>477.1621322376501</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649612</v>
+        <v>900.4499396649596</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.763713908851</v>
+        <v>993.4308829282792</v>
       </c>
       <c r="N12" t="n">
-        <v>1955.072021259919</v>
+        <v>1534.739190279346</v>
       </c>
       <c r="O12" t="n">
-        <v>2367.979045985249</v>
+        <v>2007.710743145095</v>
       </c>
       <c r="P12" t="n">
         <v>2367.979045985249</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>686.539097349762</v>
+        <v>1043.827704209598</v>
       </c>
       <c r="C13" t="n">
-        <v>540.342658655503</v>
+        <v>925.7669901098875</v>
       </c>
       <c r="D13" t="n">
-        <v>390.2260192431672</v>
+        <v>775.6503506975517</v>
       </c>
       <c r="E13" t="n">
-        <v>390.2260192431672</v>
+        <v>627.7372571151586</v>
       </c>
       <c r="F13" t="n">
-        <v>390.2260192431672</v>
+        <v>480.8473096172483</v>
       </c>
       <c r="G13" t="n">
-        <v>222.74612171971</v>
+        <v>313.367412093791</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469197</v>
+        <v>169.132356598773</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469197</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600403</v>
+        <v>139.0818334600399</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457708</v>
+        <v>368.4550473457703</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888924</v>
+        <v>717.5002252888914</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779222</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542995</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.96773471585</v>
+        <v>1800.967734715848</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082523</v>
+        <v>2060.00213308252</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551107</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014275</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370158</v>
+        <v>1968.108379906987</v>
       </c>
       <c r="T13" t="n">
-        <v>1667.488017920203</v>
+        <v>1747.294322457033</v>
       </c>
       <c r="U13" t="n">
-        <v>1378.397311360492</v>
+        <v>1747.294322457033</v>
       </c>
       <c r="V13" t="n">
-        <v>1378.397311360492</v>
+        <v>1492.609834251146</v>
       </c>
       <c r="W13" t="n">
-        <v>1088.980141323532</v>
+        <v>1492.609834251146</v>
       </c>
       <c r="X13" t="n">
-        <v>1088.980141323532</v>
+        <v>1264.620283353128</v>
       </c>
       <c r="Y13" t="n">
-        <v>868.1875621800017</v>
+        <v>1043.827704209598</v>
       </c>
     </row>
     <row r="14">
@@ -5264,52 +5264,52 @@
         <v>1204.208000760438</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2220959708302</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J14" t="n">
-        <v>372.307498725193</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128776</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957691</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750193</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469743</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V14" t="n">
         <v>3820.198054476971</v>
@@ -5343,37 +5343,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608053</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>141.6400447072585</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593863</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.38528403403</v>
+        <v>677.2291802831437</v>
       </c>
       <c r="C16" t="n">
-        <v>929.4491011061234</v>
+        <v>508.2929973552368</v>
       </c>
       <c r="D16" t="n">
-        <v>779.3324616937875</v>
+        <v>508.2929973552368</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113945</v>
+        <v>360.3799037728438</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134843</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G16" t="n">
-        <v>317.315225788063</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264934</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693324</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.51642936867</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.51642936867</v>
       </c>
       <c r="T16" t="n">
-        <v>2272.917537148665</v>
+        <v>2140.837647083052</v>
       </c>
       <c r="U16" t="n">
-        <v>2272.917537148665</v>
+        <v>1851.761433397779</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.233048942778</v>
+        <v>1597.076945191892</v>
       </c>
       <c r="W16" t="n">
-        <v>1728.815878905817</v>
+        <v>1307.659775154931</v>
       </c>
       <c r="X16" t="n">
-        <v>1500.8263280078</v>
+        <v>1079.670224256914</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.03374886427</v>
+        <v>858.8776451133834</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3403484614389</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C19" t="n">
-        <v>814.404165533532</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>664.2875261211964</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>516.3744325388034</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4844850408931</v>
+        <v>402.724593490894</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2311.25175375397</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2022.176527098168</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1767.492038892281</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614389</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614389</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5756,13 +5756,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536383</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257314</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133955</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,7 +5926,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
@@ -5935,25 +5935,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2330.088019603117</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2110.486554626058</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1821.411327970256</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1566.726839764369</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1277.309669727408</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="23">
@@ -5984,16 +5984,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,7 +6148,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797747</v>
@@ -6157,40 +6157,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630045</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6215,22 +6215,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362682</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1022.530292372931</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>853.5941094450243</v>
+        <v>929.7309773356193</v>
       </c>
       <c r="D28" t="n">
-        <v>703.4774700326885</v>
+        <v>779.6143379232835</v>
       </c>
       <c r="E28" t="n">
-        <v>555.5643764502954</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>408.6744289523851</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>241.478329667265</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U28" t="n">
-        <v>2197.062545487567</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V28" t="n">
-        <v>1942.37805728168</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W28" t="n">
-        <v>1652.96088724472</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X28" t="n">
-        <v>1424.971336346702</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y28" t="n">
-        <v>1204.178757203172</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6452,22 +6452,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6479,10 +6479,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,7 +6637,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
@@ -6652,19 +6652,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.3403484614387</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536376</v>
+        <v>849.3843576263164</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257307</v>
+        <v>680.4481746984095</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133949</v>
+        <v>530.3315352860739</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310019</v>
+        <v>382.4184417036809</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330918</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6877,31 +6877,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868272</v>
+        <v>2023.916610740951</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662385</v>
+        <v>1769.232122535064</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1479.814952498104</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727407</v>
+        <v>1251.825401600086</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583877</v>
+        <v>1031.032822456556</v>
       </c>
     </row>
     <row r="35">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1655.562009178173</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536376</v>
+        <v>571.6607764188002</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257307</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133949</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310019</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330918</v>
+        <v>402.7245934908934</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7099,7 +7099,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868272</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662385</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727407</v>
+        <v>974.1018203925701</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583877</v>
+        <v>753.3092412490399</v>
       </c>
     </row>
     <row r="38">
@@ -7175,19 +7175,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536376</v>
+        <v>571.6607764188002</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257307</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133949</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310019</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330918</v>
+        <v>402.7245934908934</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868272</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662385</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727407</v>
+        <v>974.1018203925701</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583877</v>
+        <v>753.3092412490399</v>
       </c>
     </row>
     <row r="41">
@@ -7412,19 +7412,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.6905094135291</v>
+        <v>874.8686257536376</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856222</v>
+        <v>705.9324428257307</v>
       </c>
       <c r="D43" t="n">
-        <v>550.6376870732864</v>
+        <v>555.8158034133949</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908933</v>
+        <v>407.9027098310019</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908933</v>
+        <v>261.0127623330918</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>2049.400878868272</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1794.716390662385</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>1277.309669727407</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.338974243769</v>
+        <v>1056.517090583877</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,19 +7725,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536376</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257307</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133949</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310019</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330918</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868272</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662385</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727407</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.308775558570233e-13</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>52.06660781155011</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>122.3287099986185</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.6077720323801</v>
+        <v>22.60777203238032</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>22.51234679131136</v>
+        <v>50.36671413991412</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034032</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146341</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>50.2915261372894</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>50.29152613729104</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>46.07050315880311</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>63.57833957387422</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>32.9077073655007</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>83.05123379926026</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.344791028008331e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>31.71340154579366</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24175,7 +24175,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>65.31997266427284</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>57.22910392194132</v>
       </c>
     </row>
     <row r="26">
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>75.37549921168922</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>112.9792378643588</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>72.44497470121448</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,19 +24892,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>226.0671788815077</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25087,10 +25087,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25126,10 +25126,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>84.77391660561659</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>110.0033420516646</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194181</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>110.0033420516646</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25795,13 +25795,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>176.3785887617862</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>104.877006874957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,13 +26026,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.36835372228738</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>877019.8763537089</v>
+        <v>877019.8763537081</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>959376.246005979</v>
+        <v>959376.2460059791</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>959376.2460059789</v>
+        <v>959376.246005979</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>959376.2460059789</v>
+        <v>959376.2460059791</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>959376.246005979</v>
+        <v>959376.2460059791</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>959376.246005979</v>
+        <v>959376.2460059789</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>959376.246005979</v>
+        <v>959376.2460059789</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>959376.2460059791</v>
+        <v>959376.246005979</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>959376.246005979</v>
+        <v>959376.2460059789</v>
       </c>
     </row>
   </sheetData>
@@ -26317,10 +26317,10 @@
         <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.241587664</v>
+        <v>423807.2415876633</v>
       </c>
       <c r="F2" t="n">
         <v>461540.8686918677</v>
@@ -26329,19 +26329,19 @@
         <v>464109.2948217536</v>
       </c>
       <c r="H2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="I2" t="n">
         <v>464109.2948217537</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>464109.2948217536</v>
-      </c>
-      <c r="J2" t="n">
-        <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="M2" t="n">
         <v>464109.2948217536</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185172</v>
+        <v>143114.1392185155</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051367</v>
+        <v>166521.3471051384</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557887</v>
+        <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115378</v>
+        <v>37377.3285511533</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848867</v>
+        <v>43782.40655848926</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224693</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
         <v>11677.85525949978</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214724</v>
+        <v>86093.72216214708</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1055543.67960518</v>
       </c>
       <c r="C6" t="n">
-        <v>273201.0661224128</v>
+        <v>273201.0661224125</v>
       </c>
       <c r="D6" t="n">
-        <v>273201.0661224128</v>
+        <v>273201.0661224127</v>
       </c>
       <c r="E6" t="n">
-        <v>182921.5249474997</v>
+        <v>182711.5607036561</v>
       </c>
       <c r="F6" t="n">
-        <v>183106.9494773122</v>
+        <v>183061.0444817448</v>
       </c>
       <c r="G6" t="n">
-        <v>340042.5525454618</v>
+        <v>340007.8146200263</v>
       </c>
       <c r="H6" t="n">
-        <v>351209.7887810408</v>
+        <v>351175.050855605</v>
       </c>
       <c r="I6" t="n">
-        <v>351209.7887810406</v>
+        <v>351175.0508556051</v>
       </c>
       <c r="J6" t="n">
-        <v>133678.5863837634</v>
+        <v>133643.8484583275</v>
       </c>
       <c r="K6" t="n">
-        <v>351209.7887810408</v>
+        <v>351175.050855605</v>
       </c>
       <c r="L6" t="n">
-        <v>351209.7887810406</v>
+        <v>351175.0508556052</v>
       </c>
       <c r="M6" t="n">
-        <v>313832.4602298869</v>
+        <v>313797.7223044517</v>
       </c>
       <c r="N6" t="n">
-        <v>307427.382222552</v>
+        <v>307392.6442971157</v>
       </c>
       <c r="O6" t="n">
-        <v>348186.4908038159</v>
+        <v>348151.7528783804</v>
       </c>
       <c r="P6" t="n">
-        <v>351209.7887810407</v>
+        <v>351175.050855605</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494557</v>
+        <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086496</v>
+        <v>981.3883278086477</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26960,16 +26960,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012587</v>
+        <v>122.3935669012574</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218288</v>
+        <v>145.8707812218302</v>
       </c>
       <c r="G3" t="n">
         <v>9.93445162528792</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.986872406357</v>
+        <v>149.986872406355</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173569</v>
+        <v>178.7569625173593</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.986872406357</v>
+        <v>149.986872406355</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173569</v>
+        <v>178.7569625173593</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.986872406357</v>
+        <v>149.986872406355</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173569</v>
+        <v>178.7569625173593</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>368.1343761759439</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>87.03229378982897</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27594,10 +27594,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>94.3554362891108</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>83.32522828944121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>349.4359441153671</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>277.2566436803251</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>29.62801511026737</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27825,7 +27825,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>142.2354048423647</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>2.255751353300809</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>207.4031494463918</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,10 +28017,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>69.12041821276458</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28065,7 +28065,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.999275869540122e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29691,7 +29691,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>-9.947598300641403e-13</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-4.455892491362708e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29916,7 +29916,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>3.151399141643197e-12</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485653</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508996</v>
+        <v>49.9060854350899</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380258</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307183</v>
+        <v>413.5937135307178</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726061</v>
+        <v>619.8697634726054</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216978</v>
+        <v>769.0032542216969</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857432</v>
+        <v>855.6642913857423</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898395</v>
+        <v>869.5098341898384</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294414</v>
+        <v>821.0534800294405</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615143</v>
+        <v>700.7501494615135</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895591</v>
+        <v>526.2341787895585</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356984</v>
+        <v>306.106494735698</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951044</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475346</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188522</v>
+        <v>0.3898437041188517</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969425</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191524</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596485</v>
+        <v>89.76921320596475</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783043</v>
+        <v>246.333582378304</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202557</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>566.117821625642</v>
+        <v>566.1178216256413</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845335</v>
+        <v>236.0541786324421</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147145</v>
+        <v>678.1177801147138</v>
       </c>
       <c r="O12" t="n">
-        <v>559.6740471973033</v>
+        <v>620.3452877431807</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>497.8817840205469</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071848</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697591</v>
+        <v>48.42963285697585</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780658</v>
+        <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190412</v>
+        <v>0.171533528419041</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236086</v>
+        <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737176</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691797</v>
+        <v>65.73539745691788</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836913</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619743</v>
+        <v>253.959606861974</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509178</v>
+        <v>324.9808615509174</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263712</v>
+        <v>342.6467528263708</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973097</v>
+        <v>334.4993788973093</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050062</v>
+        <v>308.9643167050058</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761898</v>
+        <v>264.3723481761895</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916781</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570618</v>
+        <v>98.28514988570608</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929615</v>
+        <v>38.0939410292961</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826912</v>
+        <v>9.339672552826901</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765139</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,28 +32075,28 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>187.8760176396499</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>615.6579511813127</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,10 +32561,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>729.0844763571695</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,7 +34445,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.547809004032</v>
+        <v>232.5478090040315</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276256</v>
+        <v>399.7799124276249</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517105</v>
+        <v>533.2368392517096</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584705</v>
+        <v>625.3180581584696</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932485</v>
+        <v>640.0967705932476</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077546</v>
+        <v>590.9552686077537</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062448</v>
+        <v>469.517153706244</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151096</v>
+        <v>303.928488915109</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156627</v>
+        <v>90.52095692156593</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116376</v>
+        <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458967</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457678</v>
+        <v>427.5634418457672</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625153</v>
+        <v>93.92014471042378</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313812</v>
+        <v>546.7760680313805</v>
       </c>
       <c r="O12" t="n">
-        <v>417.0778027528589</v>
+        <v>477.7490432987363</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>363.9073766062166</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211633</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701852</v>
+        <v>61.18259316701833</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360915</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.570886811234</v>
+        <v>352.5708868112335</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882118</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765383</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190459</v>
+        <v>333.5494446190455</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410833</v>
+        <v>261.650907441083</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998372</v>
+        <v>96.87566713998352</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>49.32163785977577</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>484.3162390979793</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,10 +36209,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295236</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>586.9504424351511</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
